--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2055046746067403</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600676594998876</v>
+        <v>-1.598705923059007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1510988666989804</v>
+        <v>0.1527657529484378</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2450723020176749</v>
+        <v>-0.2456043204806745</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1938260077389409</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533414035888334</v>
+        <v>-1.530056653102599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09990704281691813</v>
+        <v>0.1006200734788673</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2484359808798945</v>
+        <v>-0.2490341081459888</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1832096058305589</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489132155948782</v>
+        <v>-1.483860765911545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09570755980128789</v>
+        <v>0.09621281993922541</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2583098028278137</v>
+        <v>-0.2587521022008992</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1746306823850547</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558574731542325</v>
+        <v>-1.553597683080773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1227381901713846</v>
+        <v>0.122300612855663</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354503231291638</v>
+        <v>-0.2354204167658591</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1705339312365364</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.592720715350262</v>
+        <v>-1.588911589076714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079424104311581</v>
+        <v>0.1064644064762568</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2611871097815514</v>
+        <v>-0.261143037246155</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1733293108668426</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479392125626173</v>
+        <v>-1.476040251907363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.121206669566359</v>
+        <v>0.1185324110792692</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530210985802434</v>
+        <v>-0.2528762888210837</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1813021323619689</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.26435829037924</v>
+        <v>-1.262877138386096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1581410282476797</v>
+        <v>0.1542500529798244</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2590196854515203</v>
+        <v>-0.258793026698053</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1899166714176968</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006447387258516</v>
+        <v>-1.006715757518698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1800403562823361</v>
+        <v>0.1750097911706592</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2562415417024246</v>
+        <v>-0.2559991427577443</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1928436381140717</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.593517636957372</v>
+        <v>-0.5949641605298474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690804611407195</v>
+        <v>0.163591856464744</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1647548283150647</v>
+        <v>-0.1639048579895623</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1822123571192513</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2199918813388698</v>
+        <v>-0.2227857652791785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1389395689869326</v>
+        <v>0.133712251485093</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1288640443111664</v>
+        <v>-0.1284123008233531</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1507847312827382</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2414145098600926</v>
+        <v>0.237987870233021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1035870995225191</v>
+        <v>0.09960168310738579</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03873413540636775</v>
+        <v>-0.03844136784980582</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.09429249024079144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7663955333683896</v>
+        <v>0.7608486899849261</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005722232375328425</v>
+        <v>-0.007730680774108102</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05510101450997276</v>
+        <v>0.05514666106449048</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01244861363348135</v>
       </c>
       <c r="E14" t="n">
-        <v>1.311476781055697</v>
+        <v>1.304889511033053</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2298751474015168</v>
+        <v>-0.232708381819858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.159105901969037</v>
+        <v>0.1586494364238598</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08983709014698311</v>
       </c>
       <c r="E15" t="n">
-        <v>1.87300023248411</v>
+        <v>1.866246116434609</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4415933113694297</v>
+        <v>-0.4445571893748389</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2927196631188885</v>
+        <v>0.2922238470956788</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2020732555114952</v>
       </c>
       <c r="E16" t="n">
-        <v>2.345130415956494</v>
+        <v>2.337554661925674</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.666322317394014</v>
+        <v>-0.6685117779917433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4369627753948835</v>
+        <v>0.4364213128171561</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3166706065615091</v>
       </c>
       <c r="E17" t="n">
-        <v>2.800536646265058</v>
+        <v>2.792280915973836</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8799001849537438</v>
+        <v>-0.8806517790841648</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5560609322081</v>
+        <v>0.5547906987772104</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4305552254190483</v>
       </c>
       <c r="E18" t="n">
-        <v>3.223683354682565</v>
+        <v>3.216282316774209</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207976138444689</v>
+        <v>-1.20852232307978</v>
       </c>
       <c r="G18" t="n">
-        <v>0.677532709856238</v>
+        <v>0.6761066485323396</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.543626910744298</v>
       </c>
       <c r="E19" t="n">
-        <v>3.597997693880839</v>
+        <v>3.590933496064441</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507160183954599</v>
+        <v>-1.506295260447444</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8385123674490232</v>
+        <v>0.8371209345457935</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6545075942124543</v>
       </c>
       <c r="E20" t="n">
-        <v>3.723245543400977</v>
+        <v>3.714567975985247</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842914202719249</v>
+        <v>-1.841891877299964</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014663995352026</v>
+        <v>1.013135622785243</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7604787034938664</v>
       </c>
       <c r="E21" t="n">
-        <v>3.973278480819591</v>
+        <v>3.965016454451884</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079543580310427</v>
+        <v>-2.077571334351437</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182413509185525</v>
+        <v>1.180897728771713</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8593308354079139</v>
       </c>
       <c r="E22" t="n">
-        <v>4.178234658642396</v>
+        <v>4.169280063861317</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375082984544965</v>
+        <v>-2.374370740892577</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322666482989023</v>
+        <v>1.320857935018649</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9504657130167395</v>
       </c>
       <c r="E23" t="n">
-        <v>4.403291060644212</v>
+        <v>4.395021164180898</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507193557433975</v>
+        <v>-2.506175167062493</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493647458078553</v>
+        <v>1.491972701733489</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.03283595406297</v>
       </c>
       <c r="E24" t="n">
-        <v>4.531058914777552</v>
+        <v>4.5231778010372</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622011956256375</v>
+        <v>-2.621376052531369</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59753429410352</v>
+        <v>1.595687969674234</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.103948148178082</v>
       </c>
       <c r="E25" t="n">
-        <v>4.671990290822331</v>
+        <v>4.665196824294797</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817913589083898</v>
+        <v>-2.818488893072733</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660724865747257</v>
+        <v>1.65888955945182</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.160943644842124</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785165413682093</v>
+        <v>4.779261267958094</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907838088493366</v>
+        <v>-2.908439363797704</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703801047039893</v>
+        <v>1.702359245524782</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.20049239867673</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895060280693064</v>
+        <v>4.8908434834671</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980379120727191</v>
+        <v>-2.981798885974604</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754114568252269</v>
+        <v>1.752973404389326</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.219606899889749</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894380304432662</v>
+        <v>4.890231190028913</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069363143711683</v>
+        <v>-3.071240161513833</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795043787463451</v>
+        <v>1.794039563264061</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.21653796784654</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903016947351239</v>
+        <v>4.899346334760366</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.082982344158737</v>
+        <v>-3.085034078083352</v>
       </c>
       <c r="G29" t="n">
-        <v>1.726344148895161</v>
+        <v>1.724910217475657</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.1909741365611</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844646022256924</v>
+        <v>4.840778657275888</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.07271186939225</v>
+        <v>-3.074943828506254</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690168467430308</v>
+        <v>1.68904619179682</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.14512141388877</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719210864461352</v>
+        <v>4.715826723350554</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061105052391778</v>
+        <v>-3.06376907975458</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631407185593911</v>
+        <v>1.630313242304607</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.083650765177012</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638561272724147</v>
+        <v>4.635674521655681</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.02218821662718</v>
+        <v>-3.024773543033916</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593822757015493</v>
+        <v>1.593171113099274</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.011590617011005</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560189286655464</v>
+        <v>4.55901034633361</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.953071462991745</v>
+        <v>-2.95583622757831</v>
       </c>
       <c r="G33" t="n">
-        <v>1.564412209733989</v>
+        <v>1.564538131263693</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9324043538931319</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357704318853101</v>
+        <v>4.355610873421771</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.880818476257119</v>
+        <v>-2.884005077968192</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513988507183122</v>
+        <v>1.514632281003734</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8490996238230683</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132866705509147</v>
+        <v>4.131278520215755</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.849031947112012</v>
+        <v>-2.852651404081443</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39298421321401</v>
+        <v>1.393498917466675</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7640207294434128</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981553099340269</v>
+        <v>3.980602391791003</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.823736672823149</v>
+        <v>-2.827600102756382</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366460417000972</v>
+        <v>1.367463067181241</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6788424731278658</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785515313858754</v>
+        <v>3.785143845346127</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.759969223171455</v>
+        <v>-2.763923159204163</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279440769879864</v>
+        <v>1.280227779440514</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5947301946157398</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715435260521083</v>
+        <v>3.716420596491017</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728624206389874</v>
+        <v>-2.733118030981187</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236189872464763</v>
+        <v>1.237609637712177</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.512845366073918</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505136861800584</v>
+        <v>3.506698288768914</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745932120647696</v>
+        <v>-2.750688019422706</v>
       </c>
       <c r="G39" t="n">
-        <v>1.16095175846659</v>
+        <v>1.1622456021843</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4335399665319989</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259237298594505</v>
+        <v>3.260734190778862</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.711055791967476</v>
+        <v>-2.716068255859258</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096819923388315</v>
+        <v>1.098118489163388</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3561728210203043</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087152936100943</v>
+        <v>3.089096849715749</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.650307310990436</v>
+        <v>-2.654887706633422</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064832706805243</v>
+        <v>1.066332747027842</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2797263269289888</v>
       </c>
       <c r="E42" t="n">
-        <v>2.972842945454723</v>
+        <v>2.97600987192678</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.619402232553258</v>
+        <v>-2.624315533240398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9807517533836025</v>
+        <v>0.9820817995411016</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.203946641796695</v>
       </c>
       <c r="E43" t="n">
-        <v>2.839266960763783</v>
+        <v>2.843315337943769</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.602497267190488</v>
+        <v>-2.607821386868288</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9286595905641563</v>
+        <v>0.9299376940906524</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1295646192331263</v>
       </c>
       <c r="E44" t="n">
-        <v>2.710285537887919</v>
+        <v>2.714910006066301</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.530843981741078</v>
+        <v>-2.535861954699785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8645545138109432</v>
+        <v>0.8662670466149183</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.05743834793568158</v>
       </c>
       <c r="E45" t="n">
-        <v>2.513707863847798</v>
+        <v>2.518507048148644</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465478902681264</v>
+        <v>-2.470303271288051</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8344938966323426</v>
+        <v>0.836307166660081</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.01198705046320126</v>
       </c>
       <c r="E46" t="n">
-        <v>2.387655690556675</v>
+        <v>2.392952264899852</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425856906350322</v>
+        <v>-2.431489533775897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7711994397265993</v>
+        <v>0.7730237278881869</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.07826992569361069</v>
       </c>
       <c r="E47" t="n">
-        <v>2.224565273322225</v>
+        <v>2.229712315848879</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.29092333016726</v>
+        <v>-2.29561784219654</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7148700174326117</v>
+        <v>0.7167667104737789</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1406349964380463</v>
       </c>
       <c r="E48" t="n">
-        <v>2.136420202529387</v>
+        <v>2.14236527275054</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249906752894846</v>
+        <v>-2.255485863670296</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6661431074945062</v>
+        <v>0.6681342416829517</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1985108811542909</v>
       </c>
       <c r="E49" t="n">
-        <v>1.983088703847002</v>
+        <v>1.989284043108441</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197997963303032</v>
+        <v>-2.203648691948501</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5917297795158949</v>
+        <v>0.5939900709740827</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2515070322870653</v>
       </c>
       <c r="E50" t="n">
-        <v>1.889754092011235</v>
+        <v>1.895781011226695</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.150567258111317</v>
+        <v>-2.156227430871514</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5350635171299489</v>
+        <v>0.5371884429437048</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2998352047805275</v>
       </c>
       <c r="E51" t="n">
-        <v>1.765811104342655</v>
+        <v>1.771641271167953</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.10050715397747</v>
+        <v>-2.106305840420342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4900780506431752</v>
+        <v>0.492354082292576</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3440192197164059</v>
       </c>
       <c r="E52" t="n">
-        <v>1.654115559456915</v>
+        <v>1.659443614182518</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.982682378633386</v>
+        <v>-1.987451656570927</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4544642940046258</v>
+        <v>0.4567009751759941</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3852645212967699</v>
       </c>
       <c r="E53" t="n">
-        <v>1.610658465536925</v>
+        <v>1.616904173410246</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.923121495083368</v>
+        <v>-1.92783174730386</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3833453880468969</v>
+        <v>0.3850988453480259</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4242145135350081</v>
       </c>
       <c r="E54" t="n">
-        <v>1.567094338316686</v>
+        <v>1.574289179720151</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.912636953716384</v>
+        <v>-1.917624233302225</v>
       </c>
       <c r="G54" t="n">
-        <v>0.349027049145178</v>
+        <v>0.3508828176891915</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4606166811489347</v>
       </c>
       <c r="E55" t="n">
-        <v>1.511935986248946</v>
+        <v>1.519530628509221</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847694498790639</v>
+        <v>-1.852445675508285</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3220719716929037</v>
+        <v>0.3241921754492957</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4937902480037567</v>
       </c>
       <c r="E56" t="n">
-        <v>1.45397588014529</v>
+        <v>1.462475583400314</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.786022068589396</v>
+        <v>-1.790336455000881</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2149048798191464</v>
+        <v>0.2160570618159385</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5241237443035222</v>
       </c>
       <c r="E57" t="n">
-        <v>1.463427864968701</v>
+        <v>1.47216367109192</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.78366733598393</v>
+        <v>-1.787790479072177</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2156116144046104</v>
+        <v>0.2169322164473817</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5524118957517121</v>
       </c>
       <c r="E58" t="n">
-        <v>1.448274782887939</v>
+        <v>1.457627604506708</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.768849519976005</v>
+        <v>-1.772978959140738</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2110831613926283</v>
+        <v>0.2124698722384942</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5797154001754102</v>
       </c>
       <c r="E59" t="n">
-        <v>1.436406678713332</v>
+        <v>1.446417440324804</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732499909398248</v>
+        <v>-1.735897429671575</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1372585165653835</v>
+        <v>0.1381069128717645</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6066871071649902</v>
       </c>
       <c r="E60" t="n">
-        <v>1.469050261269987</v>
+        <v>1.480677540519035</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764772810451837</v>
+        <v>-1.768521336989214</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1170103345889714</v>
+        <v>0.1179327097940536</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6339159544129795</v>
       </c>
       <c r="E61" t="n">
-        <v>1.466509794408208</v>
+        <v>1.478728904846865</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.783133743501809</v>
+        <v>-1.786964119033494</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1292624994291759</v>
+        <v>0.1305579171660064</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6616779106705908</v>
       </c>
       <c r="E62" t="n">
-        <v>1.476988039698707</v>
+        <v>1.490002029793621</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826873373854073</v>
+        <v>-1.830854855221403</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04191230829259429</v>
+        <v>0.04252460173078026</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6899851089013814</v>
       </c>
       <c r="E63" t="n">
-        <v>1.463333423821423</v>
+        <v>1.476825915729213</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787929779764412</v>
+        <v>-1.790999117050949</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007712020824972946</v>
+        <v>0.00831959220579501</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7184039114300096</v>
       </c>
       <c r="E64" t="n">
-        <v>1.464683932227499</v>
+        <v>1.478595113221554</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815439698956945</v>
+        <v>-1.818594033276032</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02252488649521327</v>
+        <v>-0.02179611564205105</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7462357749294327</v>
       </c>
       <c r="E65" t="n">
-        <v>1.474567198290146</v>
+        <v>1.489315757456734</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.84090732833959</v>
+        <v>-1.844056153591752</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02569968306287675</v>
+        <v>-0.02500081857301925</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7725324896652567</v>
       </c>
       <c r="E66" t="n">
-        <v>1.438188468358645</v>
+        <v>1.452464821788842</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846266863447619</v>
+        <v>-1.848972602317135</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03405457655874081</v>
+        <v>-0.03350366986628556</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7962282688412597</v>
       </c>
       <c r="E67" t="n">
-        <v>1.403591528072455</v>
+        <v>1.418392029870046</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858146772765636</v>
+        <v>-1.860463728912191</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05310807802208563</v>
+        <v>-0.05250680271774877</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8159093236498942</v>
       </c>
       <c r="E68" t="n">
-        <v>1.353476333269363</v>
+        <v>1.368487753629207</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.88813892011246</v>
+        <v>-1.890137137386951</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0603485659800688</v>
+        <v>-0.05942776479410789</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8300421438660009</v>
       </c>
       <c r="E69" t="n">
-        <v>1.249894856953929</v>
+        <v>1.264136581963457</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.9095825696115</v>
+        <v>-1.911469031528379</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08264612085241434</v>
+        <v>-0.08192049803749472</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8372229781102395</v>
       </c>
       <c r="E70" t="n">
-        <v>1.26625835973897</v>
+        <v>1.281608194209895</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914887801059844</v>
+        <v>-1.915743280452271</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05154665105375535</v>
+        <v>-0.0505235386249099</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8365686802227887</v>
       </c>
       <c r="E71" t="n">
-        <v>1.259083980584082</v>
+        <v>1.274610105196592</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949411549456892</v>
+        <v>-1.950004167656062</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07125494447156126</v>
+        <v>-0.06983517922414804</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8276228261039148</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24273306995201</v>
+        <v>1.258835285562916</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978845707025215</v>
+        <v>-1.979047181472742</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1062139091556495</v>
+        <v>-0.1051089477324964</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8105088395096426</v>
       </c>
       <c r="E73" t="n">
-        <v>1.247547994444069</v>
+        <v>1.264205838804794</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978620622290869</v>
+        <v>-1.978624557338673</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09357138757336241</v>
+        <v>-0.09230902423807925</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7859096524001952</v>
       </c>
       <c r="E74" t="n">
-        <v>1.242160126991857</v>
+        <v>1.259882008278581</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986700062440506</v>
+        <v>-1.986308918688863</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0745540885498075</v>
+        <v>-0.0729564591416873</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7549298737632234</v>
       </c>
       <c r="E75" t="n">
-        <v>1.186694841195463</v>
+        <v>1.204097196600564</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019434938106196</v>
+        <v>-2.018994999761793</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0466215452232055</v>
+        <v>-0.04472327816291687</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7186851645454528</v>
       </c>
       <c r="E76" t="n">
-        <v>1.222236192954433</v>
+        <v>1.240450742226124</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022873382876678</v>
+        <v>-2.021995867216552</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02677631214184642</v>
+        <v>-0.02449870647332433</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.678703918851698</v>
       </c>
       <c r="E77" t="n">
-        <v>1.157277997837475</v>
+        <v>1.175686151461086</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020366757426006</v>
+        <v>-2.019229528610866</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02835505332051102</v>
+        <v>-0.02635290099821654</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6359394304195716</v>
       </c>
       <c r="E78" t="n">
-        <v>1.177176747568958</v>
+        <v>1.195684064397212</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031003978647756</v>
+        <v>-2.029740041293352</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02315449414373354</v>
+        <v>-0.02090207278115226</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5902478979381138</v>
       </c>
       <c r="E79" t="n">
-        <v>1.163430838582639</v>
+        <v>1.181942877468257</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007855666440348</v>
+        <v>-2.006331228921368</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04473901835412988</v>
+        <v>-0.04284389933208384</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5411990702071873</v>
       </c>
       <c r="E80" t="n">
-        <v>1.142771837615568</v>
+        <v>1.160292244454765</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969817133345435</v>
+        <v>-1.968695644721508</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02841801408536304</v>
+        <v>-0.02631669855842662</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4888397859234884</v>
       </c>
       <c r="E81" t="n">
-        <v>1.167680690210151</v>
+        <v>1.184407791412213</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923141170322384</v>
+        <v>-1.921811911174446</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008563336889276166</v>
+        <v>-0.006336099832635693</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4332594735185387</v>
       </c>
       <c r="E82" t="n">
-        <v>1.226558449461524</v>
+        <v>1.243460266786051</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951172089844067</v>
+        <v>-1.950704606165041</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01916300993243545</v>
+        <v>0.02164838612496923</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3745215393914533</v>
       </c>
       <c r="E83" t="n">
-        <v>1.313581244620876</v>
+        <v>1.329801511665879</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846555695956378</v>
+        <v>-1.846188162491554</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0117352136990175</v>
+        <v>0.01374838415516108</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3131500370961835</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308235875684938</v>
+        <v>1.322746757964209</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785650600076769</v>
+        <v>-1.785949663709816</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0222638276013978</v>
+        <v>0.02412904026013912</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2499769130136227</v>
       </c>
       <c r="E85" t="n">
-        <v>1.417339011077896</v>
+        <v>1.430626880499916</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757558293809355</v>
+        <v>-1.758923755397083</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01613774518129553</v>
+        <v>0.01778259516305475</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1870888754084158</v>
       </c>
       <c r="E86" t="n">
-        <v>1.66233823534659</v>
+        <v>1.675046865731972</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653121338101494</v>
+        <v>-1.65513765659588</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03207783682270759</v>
+        <v>0.03357000694970064</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1272392077923606</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597181713820348</v>
+        <v>1.606625828548153</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533238532756309</v>
+        <v>-1.535917513300763</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0529320161608204</v>
+        <v>0.05432817112141412</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07376863201444013</v>
       </c>
       <c r="E88" t="n">
-        <v>1.744601196683128</v>
+        <v>1.753146546492669</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333529347674359</v>
+        <v>-1.336070601545699</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08961925384009684</v>
+        <v>0.09095559607408112</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03029753620534837</v>
       </c>
       <c r="E89" t="n">
-        <v>1.91203905473061</v>
+        <v>1.919394446084448</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15865267525961</v>
+        <v>-1.161037314228381</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1133365739598556</v>
+        <v>0.1146162515054731</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0007373456685167108</v>
       </c>
       <c r="E90" t="n">
-        <v>1.933261554543107</v>
+        <v>1.938655718071805</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9184620794064893</v>
+        <v>-0.9206861684248872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1421537160326286</v>
+        <v>0.1434428376929739</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01189813305996551</v>
       </c>
       <c r="E91" t="n">
-        <v>1.971724285791211</v>
+        <v>1.97644319511687</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6664860153826293</v>
+        <v>-0.6690028719575891</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09538488588142126</v>
+        <v>0.0959562548224534</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.006043194773536231</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987392072124638</v>
+        <v>1.991736364899428</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4612166077546854</v>
+        <v>-0.4639365127962929</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1066029201589313</v>
+        <v>0.1073316910120935</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01781022102206568</v>
       </c>
       <c r="E93" t="n">
-        <v>1.960828925433568</v>
+        <v>1.965052018736017</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2406477342676987</v>
+        <v>-0.2429095997450078</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09180871443782609</v>
+        <v>0.0925091529468049</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05574079107888402</v>
       </c>
       <c r="E94" t="n">
-        <v>1.84830072443266</v>
+        <v>1.852166515394575</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05759560653691389</v>
+        <v>-0.05988265632016379</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06654728156007135</v>
+        <v>0.06716744509386383</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1004548637726526</v>
       </c>
       <c r="E95" t="n">
-        <v>1.797071124091687</v>
+        <v>1.800296289271232</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07366971808395696</v>
+        <v>0.07102221792192921</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05405271777518649</v>
+        <v>0.05486648566089895</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1445542292346941</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669100221491698</v>
+        <v>1.672038915191166</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1468773474156519</v>
+        <v>0.1443778050510265</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005393262378976581</v>
+        <v>-0.00488800224103906</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1831899998791005</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503661367728268</v>
+        <v>1.505251127040782</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1511366431578916</v>
+        <v>0.1480736019478405</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02062189737756074</v>
+        <v>-0.02000330786288957</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2183497543234145</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390158848891275</v>
+        <v>1.391418064188316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1791400173449522</v>
+        <v>0.1764122422077381</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05879186106910241</v>
+        <v>-0.0578521716536859</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.253195490689468</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250677144457215</v>
+        <v>1.251132035983271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1821825963064264</v>
+        <v>0.1794390809779993</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09838631206542121</v>
+        <v>-0.09772207599623232</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2936694189560449</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091663436746934</v>
+        <v>1.091568995599656</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2379437976976246</v>
+        <v>0.2362218207789216</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454762421173739</v>
+        <v>-0.1451582902548711</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3362751463392518</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9102120864625122</v>
+        <v>0.9086900099722145</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2200613664605274</v>
+        <v>0.2181190268648424</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1712035846550336</v>
+        <v>-0.1707329529377647</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3814130545723954</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8502057555011661</v>
+        <v>0.849184217091442</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2581447591003976</v>
+        <v>0.2568210090193837</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2091893881093831</v>
+        <v>-0.2088415298835757</v>
       </c>
     </row>
   </sheetData>
